--- a/data_year/zb/教育/成人专科分学科学生数/成人专科分学科在校学生数.xlsx
+++ b/data_year/zb/教育/成人专科分学科学生数/成人专科分学科在校学生数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR18"/>
+  <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,11 +653,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>278.2002</v>
+        <v>310.9931</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -668,7 +668,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>63.475</v>
+        <v>41.4565</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -691,7 +691,7 @@
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="n">
-        <v>214.7252</v>
+        <v>269.5366</v>
       </c>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
@@ -709,67 +709,147 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>274.9565</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>313.883</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.1472</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.3856</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0147</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.7779</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.8833</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.8435</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.2058</v>
+      </c>
       <c r="K3" t="n">
-        <v>58.2214</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
+        <v>37.8467</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.9476</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.6525</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.1183</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.6714</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0977</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.3255</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.8173</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.3804</v>
+      </c>
+      <c r="U3" t="n">
+        <v>10.939</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.0291</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.1247</v>
+      </c>
+      <c r="X3" t="n">
+        <v>9.439500000000001</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>7.2538</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.4839</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>5.8961</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>35.5745</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>43.1231</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>18.8844</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>14.764</v>
+      </c>
       <c r="AF3" t="n">
-        <v>216.7351</v>
-      </c>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
+        <v>276.0363</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>25.9342</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>4.4911</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3.4884</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1.1589</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>3.1971</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.5369</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>3.6289</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>23.0028</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>6.0334</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>74.4593</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>7.6623</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>1.7877</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>312.8468</v>
+        <v>335.5628</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -779,9 +859,7 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>55.8854</v>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -802,9 +880,7 @@
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="n">
-        <v>256.9614</v>
-      </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
@@ -821,11 +897,11 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>301.4332</v>
+        <v>360.9549</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -835,9 +911,7 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>50.9441</v>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -858,9 +932,7 @@
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="n">
-        <v>250.4891</v>
-      </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
@@ -877,11 +949,11 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>313.0117</v>
+        <v>373.3295</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -891,9 +963,7 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>48.8356</v>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -914,9 +984,7 @@
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="n">
-        <v>264.1761</v>
-      </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
@@ -933,11 +1001,11 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>315.6851</v>
+        <v>356.5998</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -947,9 +1015,7 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>46.1725</v>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -970,9 +1036,7 @@
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="n">
-        <v>269.5126</v>
-      </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
@@ -989,11 +1053,11 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>310.9931</v>
+        <v>315.7264</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -1003,9 +1067,7 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>41.4565</v>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -1026,9 +1088,7 @@
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="n">
-        <v>269.5366</v>
-      </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr"/>
@@ -1045,147 +1105,63 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>313.883</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.1472</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.3856</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0147</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.197</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5.7779</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.8833</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.8435</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.2058</v>
-      </c>
-      <c r="K9" t="n">
-        <v>37.8467</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.9476</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.6525</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.1183</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.6714</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.0977</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.3255</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.8173</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.3804</v>
-      </c>
-      <c r="U9" t="n">
-        <v>10.939</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.0291</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.1247</v>
-      </c>
-      <c r="X9" t="n">
-        <v>9.439500000000001</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>7.2538</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.4839</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>5.8961</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>35.5745</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>43.1231</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>18.8844</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>14.764</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>276.0363</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>25.9342</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>4.4911</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>3.4884</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1.1589</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>3.1971</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0.5369</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>3.6289</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>23.0028</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>6.0334</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>74.4593</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>7.6623</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>1.7877</v>
-      </c>
+        <v>285.162</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>335.5628</v>
+        <v>293.8744</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -1233,11 +1209,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>360.9549</v>
+        <v>327.2429</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1285,11 +1261,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>373.3295</v>
+        <v>372.1917</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -1337,11 +1313,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>356.5998</v>
+        <v>373.5423</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1386,266 +1362,6 @@
       <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>315.7264</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>285.162</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>293.8744</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>327.2429</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>372.1917</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="inlineStr"/>
-      <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
